--- a/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
+++ b/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802932A-0E1F-4520-BD87-52F670D5681E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B465F-7A8D-4C6C-B8E3-A877470E2901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lead_Config16_CL" sheetId="13" r:id="rId1"/>
+    <sheet name="Lead_Config17_CL" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>RRD_Crieteria</t>
   </si>
@@ -48,7 +49,10 @@
     <t>User</t>
   </si>
   <si>
-    <t>No Logic</t>
+    <t>City,(City)</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
   </si>
 </sst>
 </file>
@@ -400,7 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1173DF-B645-46B3-BEC8-8C64A5D04670}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -434,11 +440,57 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CC19B-46E8-4276-8F7A-77B73E6748CA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
+++ b/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B465F-7A8D-4C6C-B8E3-A877470E2901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D0C235-209C-4041-B59D-B2AA208A883B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lead_Config16_CL" sheetId="13" r:id="rId1"/>
     <sheet name="Lead_Config17_CL" sheetId="14" r:id="rId2"/>
+    <sheet name="Lead_Config18_CL" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>RRD_Crieteria</t>
   </si>
@@ -53,6 +54,9 @@
   </si>
   <si>
     <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Employees,(NumberOfEmployees)</t>
   </si>
 </sst>
 </file>
@@ -451,9 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CC19B-46E8-4276-8F7A-77B73E6748CA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -493,4 +495,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED53CF-1D90-4AE0-A78B-A568EE81582B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
+++ b/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D0C235-209C-4041-B59D-B2AA208A883B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E6EA06-672A-4AB4-AA3B-24FEAA0D93C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lead_Config16_CL" sheetId="13" r:id="rId1"/>
     <sheet name="Lead_Config17_CL" sheetId="14" r:id="rId2"/>
     <sheet name="Lead_Config18_CL" sheetId="15" r:id="rId3"/>
+    <sheet name="Lead_Config19_CL" sheetId="16" r:id="rId4"/>
+    <sheet name="Lead_Config20_CL" sheetId="18" r:id="rId5"/>
+    <sheet name="Lead_Config20_1_CL" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>RRD_Crieteria</t>
   </si>
@@ -57,6 +60,12 @@
   </si>
   <si>
     <t>Employees,(NumberOfEmployees)</t>
+  </si>
+  <si>
+    <t>not equals</t>
+  </si>
+  <si>
+    <t>1 AND 2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CC19B-46E8-4276-8F7A-77B73E6748CA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -501,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED53CF-1D90-4AE0-A78B-A568EE81582B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,4 +554,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96A22C8-1F99-4AE3-A532-CAD8A1DE3B25}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA334AB-A30C-4259-AC50-0C144524CC87}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8357F0-2CB4-43DA-9BE6-2E0923AE53A9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
+++ b/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E6EA06-672A-4AB4-AA3B-24FEAA0D93C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D59D5-DBA5-4372-94DF-10E1B38518A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lead_Config16_CL" sheetId="13" r:id="rId1"/>
@@ -19,6 +19,17 @@
     <sheet name="Lead_Config19_CL" sheetId="16" r:id="rId4"/>
     <sheet name="Lead_Config20_CL" sheetId="18" r:id="rId5"/>
     <sheet name="Lead_Config20_1_CL" sheetId="19" r:id="rId6"/>
+    <sheet name="Lead_Config21_CL" sheetId="20" r:id="rId7"/>
+    <sheet name="Lead_Config22_CL" sheetId="21" r:id="rId8"/>
+    <sheet name="Lead_Config23_CL" sheetId="22" r:id="rId9"/>
+    <sheet name="Lead_Config24_CL" sheetId="23" r:id="rId10"/>
+    <sheet name="Lead_Config25_CL" sheetId="24" r:id="rId11"/>
+    <sheet name="Lead_Config26_CL" sheetId="25" r:id="rId12"/>
+    <sheet name="Lead_Config27_1_CL" sheetId="26" r:id="rId13"/>
+    <sheet name="Lead_Config27_2_CL" sheetId="27" r:id="rId14"/>
+    <sheet name="Lead_Config28_CL" sheetId="29" r:id="rId15"/>
+    <sheet name="Lead_Config29_1_CL" sheetId="30" r:id="rId16"/>
+    <sheet name="Lead_Config29_2_CL" sheetId="31" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
   <si>
     <t>RRD_Crieteria</t>
   </si>
@@ -66,6 +77,33 @@
   </si>
   <si>
     <t>1 AND 2</t>
+  </si>
+  <si>
+    <t>Country,(Country)</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>Rating,(Rating)</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Industry,(Industry)</t>
   </si>
 </sst>
 </file>
@@ -460,6 +498,369 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3745DFE5-9660-4567-AE96-478F0933352F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E51A9C-803E-42B8-8DCE-D7D3F263BC65}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA9A96-2D33-4504-B71F-AC5A1989C338}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7870F20C-A9F5-4BB2-920E-AB5B53650D16}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEB5118-8EE6-43D8-9CB4-5D7CF86E8486}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8CF1AB-D634-4141-BDE4-6B1D3A7A2850}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11A856-65DD-4FBD-9BC6-809A5C295B22}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CB2FD9-1388-4B01-8D86-28DAC3014B03}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CC19B-46E8-4276-8F7A-77B73E6748CA}">
   <dimension ref="A1:D2"/>
@@ -607,9 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA334AB-A30C-4259-AC50-0C144524CC87}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -695,4 +1094,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB7B45-F2F9-4A65-8DD3-4505E2E6D79F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFB1A8-2DF8-4D90-9F1D-C970AA7C4BB5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628A5095-21EE-4C42-82D5-4A7E21DE9B8D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
+++ b/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D59D5-DBA5-4372-94DF-10E1B38518A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA23430-C0AB-45D0-8665-CD109654EFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lead_Config16_CL" sheetId="13" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
   <si>
     <t>RRD_Crieteria</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Country,(Country)</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
@@ -104,6 +101,12 @@
   </si>
   <si>
     <t>Industry,(Industry)</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>afghanistan</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA9A96-2D33-4504-B71F-AC5A1989C338}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -582,15 +629,15 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA9A96-2D33-4504-B71F-AC5A1989C338}">
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7870F20C-A9F5-4BB2-920E-AB5B53650D16}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -619,238 +666,194 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEB5118-8EE6-43D8-9CB4-5D7CF86E8486}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8CF1AB-D634-4141-BDE4-6B1D3A7A2850}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11A856-65DD-4FBD-9BC6-809A5C295B22}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CB2FD9-1388-4B01-8D86-28DAC3014B03}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7870F20C-A9F5-4BB2-920E-AB5B53650D16}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEB5118-8EE6-43D8-9CB4-5D7CF86E8486}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8CF1AB-D634-4141-BDE4-6B1D3A7A2850}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11A856-65DD-4FBD-9BC6-809A5C295B22}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CB2FD9-1388-4B01-8D86-28DAC3014B03}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -1008,7 +1011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA334AB-A30C-4259-AC50-0C144524CC87}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1040,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1058,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -1100,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB7B45-F2F9-4A65-8DD3-4505E2E6D79F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -1222,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3"/>
     </row>

--- a/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
+++ b/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA23430-C0AB-45D0-8665-CD109654EFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA24D1-D0F5-4517-AF9E-088136D534EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lead_Config16_CL" sheetId="13" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="24">
   <si>
     <t>RRD_Crieteria</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>afghanistan</t>
+  </si>
+  <si>
+    <t>Pratapgarh</t>
+  </si>
+  <si>
+    <t>Hydrabad</t>
   </si>
 </sst>
 </file>
@@ -596,7 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA9A96-2D33-4504-B71F-AC5A1989C338}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -640,7 +648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7870F20C-A9F5-4BB2-920E-AB5B53650D16}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -671,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -731,7 +741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8CF1AB-D634-4141-BDE4-6B1D3A7A2850}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -775,7 +787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11A856-65DD-4FBD-9BC6-809A5C295B22}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -806,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -817,6 +831,244 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CB2FD9-1388-4B01-8D86-28DAC3014B03}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CC19B-46E8-4276-8F7A-77B73E6748CA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED53CF-1D90-4AE0-A78B-A568EE81582B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96A22C8-1F99-4AE3-A532-CAD8A1DE3B25}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA334AB-A30C-4259-AC50-0C144524CC87}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8357F0-2CB4-43DA-9BE6-2E0923AE53A9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -825,35 +1077,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -864,151 +1115,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CC19B-46E8-4276-8F7A-77B73E6748CA}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED53CF-1D90-4AE0-A78B-A568EE81582B}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96A22C8-1F99-4AE3-A532-CAD8A1DE3B25}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA334AB-A30C-4259-AC50-0C144524CC87}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB7B45-F2F9-4A65-8DD3-4505E2E6D79F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1039,100 +1147,6 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8357F0-2CB4-43DA-9BE6-2E0923AE53A9}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB7B45-F2F9-4A65-8DD3-4505E2E6D79F}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">

--- a/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
+++ b/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA24D1-D0F5-4517-AF9E-088136D534EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A771834-BE6E-4589-A3A4-43D8B692E7D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lead_Config16_CL" sheetId="13" r:id="rId1"/>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,16 +189,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3745DFE5-9660-4567-AE96-478F0933352F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -833,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CB2FD9-1388-4B01-8D86-28DAC3014B03}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1209,7 +1227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628A5095-21EE-4C42-82D5-4A7E21DE9B8D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1240,7 +1260,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3"/>

--- a/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
+++ b/rrd/AppData/Lead_Config_CriteriaLogic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A771834-BE6E-4589-A3A4-43D8B692E7D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30A969-0762-4163-8C9B-645F366F6132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lead_Config16_CL" sheetId="13" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>Rating,(Rating)</t>
   </si>
   <si>
-    <t>Hot</t>
-  </si>
-  <si>
     <t>Noida</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Hydrabad</t>
+  </si>
+  <si>
+    <t>Hot;Warm</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3745DFE5-9660-4567-AE96-478F0933352F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -573,6 +573,429 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E51A9C-803E-42B8-8DCE-D7D3F263BC65}">
   <dimension ref="A1:D2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA9A96-2D33-4504-B71F-AC5A1989C338}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7870F20C-A9F5-4BB2-920E-AB5B53650D16}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEB5118-8EE6-43D8-9CB4-5D7CF86E8486}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8CF1AB-D634-4141-BDE4-6B1D3A7A2850}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11A856-65DD-4FBD-9BC6-809A5C295B22}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CB2FD9-1388-4B01-8D86-28DAC3014B03}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CC19B-46E8-4276-8F7A-77B73E6748CA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED53CF-1D90-4AE0-A78B-A568EE81582B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96A22C8-1F99-4AE3-A532-CAD8A1DE3B25}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
@@ -601,23 +1024,23 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA9A96-2D33-4504-B71F-AC5A1989C338}">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA334AB-A30C-4259-AC50-0C144524CC87}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -626,6 +1049,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8357F0-2CB4-43DA-9BE6-2E0923AE53A9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -653,17 +1122,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7870F20C-A9F5-4BB2-920E-AB5B53650D16}">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB7B45-F2F9-4A65-8DD3-4505E2E6D79F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -672,50 +1143,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEB5118-8EE6-43D8-9CB4-5D7CF86E8486}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -738,25 +1165,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8CF1AB-D634-4141-BDE4-6B1D3A7A2850}">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFB1A8-2DF8-4D90-9F1D-C970AA7C4BB5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628A5095-21EE-4C42-82D5-4A7E21DE9B8D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -765,147 +1233,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11A856-65DD-4FBD-9BC6-809A5C295B22}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CB2FD9-1388-4B01-8D86-28DAC3014B03}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CC19B-46E8-4276-8F7A-77B73E6748CA}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -928,333 +1255,6 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED53CF-1D90-4AE0-A78B-A568EE81582B}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96A22C8-1F99-4AE3-A532-CAD8A1DE3B25}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA334AB-A30C-4259-AC50-0C144524CC87}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8357F0-2CB4-43DA-9BE6-2E0923AE53A9}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB7B45-F2F9-4A65-8DD3-4505E2E6D79F}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFB1A8-2DF8-4D90-9F1D-C970AA7C4BB5}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628A5095-21EE-4C42-82D5-4A7E21DE9B8D}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
